--- a/Other/exchange options.xlsx
+++ b/Other/exchange options.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanherden/Documents/uni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanherden/Documents/uni/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C747812-26A5-744F-BCE1-DB078EB33179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72EA6B9-7F35-ED4B-8989-0DBF15F4BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-8620" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{90D4D822-39A1-5844-BCDA-DA718A3F088E}"/>
+    <workbookView xWindow="72960" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{90D4D822-39A1-5844-BCDA-DA718A3F088E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Barcelona" sheetId="2" r:id="rId2"/>
+    <sheet name="carlos 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F80224-1C98-A740-A754-2AE1225F7BFC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +627,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B37036-62AF-D947-82DC-FBE378A75C4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>